--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_SEC_AgencyCode2_DetailsPage.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_SEC_AgencyCode2_DetailsPage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AADTHAKUR\Documents\RStars_Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B993506-9AA3-430C-A3E8-03C2F7A15C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C024535-7353-4EA5-94A5-27B834D9EB20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{47F3ED91-9736-44D1-BBE7-D76D75DF66F8}"/>
   </bookViews>
@@ -103,9 +103,6 @@
     <t>Select Agency in dropdown</t>
   </si>
   <si>
-    <t>J05</t>
-  </si>
-  <si>
     <t>link_agencyCode2_wait_ac2</t>
   </si>
   <si>
@@ -137,6 +134,9 @@
   </si>
   <si>
     <t>Offset3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> J02 - J02 </t>
   </si>
 </sst>
 </file>
@@ -616,7 +616,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
@@ -630,10 +630,10 @@
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -644,7 +644,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
@@ -658,7 +658,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
@@ -672,7 +672,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>13</v>
@@ -686,7 +686,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>7</v>
@@ -700,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>7</v>
@@ -720,7 +720,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -729,7 +729,7 @@
     <col min="2" max="2" width="23.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.36328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.6328125" bestFit="1" customWidth="1"/>
   </cols>
@@ -742,7 +742,7 @@
         <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>17</v>
@@ -768,13 +768,13 @@
         <v>6565</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="G2" s="6"/>
     </row>
